--- a/medicine/Psychotrope/Champagne_Canard-Duchêne/Champagne_Canard-Duchêne.xlsx
+++ b/medicine/Psychotrope/Champagne_Canard-Duchêne/Champagne_Canard-Duchêne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Champagne_Canard-Duch%C3%AAne</t>
+          <t>Champagne_Canard-Duchêne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Née en 1868 de l’union d’un tonnelier (Victor Canard) et d’une vigneronne (Léonie Duchêne), la maison de Champagne Canard-Duchêne est située à Ludes, dans le vignoble de la montagne de Reims. Elle appartient depuis 2004 au Groupe Alain Thiénot..
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Champagne_Canard-Duch%C3%AAne</t>
+          <t>Champagne_Canard-Duchêne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1868, Victor Canard menuisier-tonnelier et Léonie Duchêne, fille de vigneron, fondent la maison de champagne Canard-Duchêne  à Ludes, berceau de la famille.vignoble de la Champagne, sur les coteaux de Ludes, dans ce qui est désormais le parc naturel de la Montagne de Reims[1],[2].
-En 1890, Edmond Canard succède à Victor Canard et Léonie Duchêne, ses parents, à la tête de la maison Canard-Duchêne[3].
-Demeuré seul à la direction de l’entreprise après le décès de son frère Alfred, Edmond donne à cette marque une renommée internationale en mettant l'accent notamment sur la commercialisation de ce champagne à quelques clients étrangers emblématiques[3]. Ainsi, la maison Canard-Duchêne entre dans le cercle très fermé des fournisseurs du tsar Nicolas II. Ceci lui permet d'arborer désormais sur ses étiquettes l'aigle bicéphale surmonté d'une couronne, « emprunté » à la famille impériale de Russie[3]. Un autre emblème s’y ajoute plus tard : le sabre de cosaque russe, en souvenir de la tradition d’époque napoléonienne de sabrer le champagne.
-À partir de 1930, Victor Canard, petit-fils des fondateurs, donne une impulsion supplémentaire à la notoriété de la marque  par du sponsoring sportif. Victor Canard préside aux destinées du Stade de Reims à ses heures les plus glorieuses[4] et s'associe à des événements majeurs comme les Jeux Olympiques de Grenoble en 1968[5].
-Grâce aux exportations, la maison franchit la barre des 2 800 000 bouteilles annuellement. Une expansion qui nécessite des apports de capitaux. Après une brève association avec Piper-Heidsieck, la société Canard-Duchêne est vendue en 1978 à Veuve Clicquot-Ponsardin[6], qui intègre le groupe LVMH en 1987[7].
-La Maison Canard-Duchêne est revendue par LVMH et devient la propriété du groupe Thiénot en 2004[8],[9],[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1868, Victor Canard menuisier-tonnelier et Léonie Duchêne, fille de vigneron, fondent la maison de champagne Canard-Duchêne  à Ludes, berceau de la famille.vignoble de la Champagne, sur les coteaux de Ludes, dans ce qui est désormais le parc naturel de la Montagne de Reims,.
+En 1890, Edmond Canard succède à Victor Canard et Léonie Duchêne, ses parents, à la tête de la maison Canard-Duchêne.
+Demeuré seul à la direction de l’entreprise après le décès de son frère Alfred, Edmond donne à cette marque une renommée internationale en mettant l'accent notamment sur la commercialisation de ce champagne à quelques clients étrangers emblématiques. Ainsi, la maison Canard-Duchêne entre dans le cercle très fermé des fournisseurs du tsar Nicolas II. Ceci lui permet d'arborer désormais sur ses étiquettes l'aigle bicéphale surmonté d'une couronne, « emprunté » à la famille impériale de Russie. Un autre emblème s’y ajoute plus tard : le sabre de cosaque russe, en souvenir de la tradition d’époque napoléonienne de sabrer le champagne.
+À partir de 1930, Victor Canard, petit-fils des fondateurs, donne une impulsion supplémentaire à la notoriété de la marque  par du sponsoring sportif. Victor Canard préside aux destinées du Stade de Reims à ses heures les plus glorieuses et s'associe à des événements majeurs comme les Jeux Olympiques de Grenoble en 1968.
+Grâce aux exportations, la maison franchit la barre des 2 800 000 bouteilles annuellement. Une expansion qui nécessite des apports de capitaux. Après une brève association avec Piper-Heidsieck, la société Canard-Duchêne est vendue en 1978 à Veuve Clicquot-Ponsardin, qui intègre le groupe LVMH en 1987.
+La Maison Canard-Duchêne est revendue par LVMH et devient la propriété du groupe Thiénot en 2004.
 </t>
         </is>
       </c>
